--- a/Team-Data/2007-08/3-17-2007-08.xlsx
+++ b/Team-Data/2007-08/3-17-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.433</v>
+        <v>0.424</v>
       </c>
       <c r="H2" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J2" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M2" t="n">
         <v>12.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.353</v>
+        <v>0.349</v>
       </c>
       <c r="O2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
         <v>12.4</v>
@@ -717,7 +784,7 @@
         <v>42.5</v>
       </c>
       <c r="U2" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V2" t="n">
         <v>15.2</v>
@@ -732,19 +799,19 @@
         <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -759,13 +826,13 @@
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
         <v>22</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
@@ -774,10 +841,10 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -798,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -807,13 +874,13 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ2" t="n">
         <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,28 +933,28 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="K3" t="n">
         <v>0.477</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O3" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P3" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R3" t="n">
         <v>9.800000000000001</v>
@@ -896,10 +963,10 @@
         <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
         <v>15.2</v>
@@ -917,16 +984,16 @@
         <v>22.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -965,16 +1032,16 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS3" t="n">
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.358</v>
+        <v>0.364</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
         <v>80</v>
@@ -1060,19 +1127,19 @@
         <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0.707</v>
       </c>
       <c r="R4" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S4" t="n">
         <v>29.6</v>
@@ -1081,7 +1148,7 @@
         <v>40.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1090,25 +1157,25 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1129,16 +1196,16 @@
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1153,13 +1220,13 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>24</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>18</v>
@@ -1168,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,10 +1247,10 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,7 +1297,7 @@
         <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0.429</v>
@@ -1242,37 +1309,37 @@
         <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O5" t="n">
         <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R5" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S5" t="n">
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
         <v>21.7</v>
       </c>
       <c r="V5" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
@@ -1287,10 +1354,10 @@
         <v>96.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1326,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1344,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1365,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1421,19 +1488,19 @@
         <v>7.2</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
         <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R6" t="n">
         <v>13</v>
@@ -1445,13 +1512,13 @@
         <v>44.3</v>
       </c>
       <c r="U6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
         <v>14.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
         <v>5</v>
@@ -1460,16 +1527,16 @@
         <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA6" t="n">
         <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
         <v>3</v>
@@ -1511,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1538,10 +1605,10 @@
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF7" t="n">
         <v>8</v>
       </c>
-      <c r="AF7" t="n">
-        <v>7</v>
-      </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1690,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1726,10 +1793,10 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2051,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2221,22 +2288,22 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>5.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
@@ -2394,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2424,7 +2491,7 @@
         <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.388</v>
+        <v>0.379</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2516,7 +2583,7 @@
         <v>24.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
         <v>18.8</v>
@@ -2525,16 +2592,16 @@
         <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
         <v>22.6</v>
@@ -2546,7 +2613,7 @@
         <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
         <v>5.1</v>
@@ -2558,16 +2625,16 @@
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>14</v>
@@ -2612,19 +2679,19 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="n">
-        <v>0.318</v>
+        <v>0.323</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
-        <v>0.329</v>
+        <v>0.332</v>
       </c>
       <c r="O13" t="n">
         <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="Q13" t="n">
         <v>0.787</v>
       </c>
       <c r="R13" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S13" t="n">
         <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2779,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2806,13 +2873,13 @@
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.242</v>
+        <v>0.231</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3059,7 +3126,7 @@
         <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="N15" t="n">
         <v>0.351</v>
@@ -3068,34 +3135,34 @@
         <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.731</v>
+        <v>0.734</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
         <v>30.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W15" t="n">
         <v>6.2</v>
       </c>
       <c r="X15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
@@ -3107,19 +3174,19 @@
         <v>99.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3158,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>27</v>
@@ -3167,10 +3234,10 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3185,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3525,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3540,7 +3607,7 @@
         <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
         <v>19</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>0.242</v>
+        <v>0.231</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3596,25 +3663,25 @@
         <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.728</v>
@@ -3623,13 +3690,13 @@
         <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T18" t="n">
         <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V18" t="n">
         <v>15.1</v>
@@ -3638,7 +3705,7 @@
         <v>7.6</v>
       </c>
       <c r="X18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y18" t="n">
         <v>5.9</v>
@@ -3650,22 +3717,22 @@
         <v>17.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7</v>
+        <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF18" t="n">
         <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
         <v>28</v>
@@ -3710,10 +3777,10 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3728,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,10 +3926,10 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>19</v>
@@ -3889,10 +3956,10 @@
         <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3910,10 +3977,10 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3975,10 +4042,10 @@
         <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q20" t="n">
         <v>0.77</v>
@@ -3987,16 +4054,16 @@
         <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T20" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U20" t="n">
         <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4008,31 +4075,31 @@
         <v>4.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
         <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>5</v>
@@ -4071,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4095,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -4124,19 +4191,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I21" t="n">
         <v>35.3</v>
@@ -4145,52 +4212,52 @@
         <v>80.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M21" t="n">
         <v>17.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.336</v>
+        <v>0.333</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R21" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U21" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W21" t="n">
         <v>6.1</v>
       </c>
       <c r="X21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y21" t="n">
         <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4199,10 +4266,10 @@
         <v>95.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4220,7 +4287,7 @@
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4229,25 +4296,25 @@
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4259,16 +4326,16 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.652</v>
+        <v>0.647</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="L22" t="n">
         <v>9.5</v>
       </c>
       <c r="M22" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O22" t="n">
         <v>20.8</v>
       </c>
       <c r="P22" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
         <v>42.1</v>
@@ -4360,10 +4427,10 @@
         <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.2</v>
@@ -4381,13 +4448,13 @@
         <v>105</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
@@ -4402,13 +4469,13 @@
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
@@ -4423,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
@@ -4441,7 +4508,7 @@
         <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
         <v>24</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>16</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
@@ -4614,7 +4681,7 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
@@ -4626,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>4</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4954,10 +5021,10 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
         <v>6</v>
@@ -4969,19 +5036,19 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -5002,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>44</v>
       </c>
       <c r="F27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>0.657</v>
+        <v>0.667</v>
       </c>
       <c r="H27" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.454</v>
@@ -5255,19 +5322,19 @@
         <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T27" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
@@ -5276,7 +5343,7 @@
         <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
@@ -5285,34 +5352,34 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
@@ -5333,10 +5400,10 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
@@ -5357,7 +5424,7 @@
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ27" t="n">
         <v>2</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5485,7 +5552,7 @@
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH28" t="n">
         <v>17</v>
@@ -5515,7 +5582,7 @@
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>11</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="n">
         <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J29" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L29" t="n">
         <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N29" t="n">
         <v>0.404</v>
       </c>
       <c r="O29" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P29" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q29" t="n">
         <v>0.8120000000000001</v>
@@ -5628,22 +5695,22 @@
         <v>30.4</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
         <v>23.3</v>
       </c>
       <c r="V29" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z29" t="n">
         <v>19.9</v>
@@ -5652,25 +5719,25 @@
         <v>18.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5718,7 +5785,7 @@
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>5</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.652</v>
+        <v>0.647</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,31 +5847,31 @@
         <v>39.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="L30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="P30" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="R30" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="S30" t="n">
         <v>29.3</v>
@@ -5813,7 +5880,7 @@
         <v>40.6</v>
       </c>
       <c r="U30" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5828,22 +5895,22 @@
         <v>5.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA30" t="n">
         <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -5858,10 +5925,10 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5879,7 +5946,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5986,13 +6053,13 @@
         <v>0.79</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S31" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T31" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U31" t="n">
         <v>19.2</v>
@@ -6004,31 +6071,31 @@
         <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA31" t="n">
         <v>20.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6067,10 +6134,10 @@
         <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6082,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-17-2007-08</t>
+          <t>2008-03-17</t>
         </is>
       </c>
     </row>
